--- a/Maestro_Rutas.xlsx
+++ b/Maestro_Rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\PYTHON\DP2\Otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8113F1-10A6-42E3-9AF9-CAB948A94A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376AFAA5-0B67-41CA-925E-3813E5E4E033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="523" xr2:uid="{786B7670-D30F-4036-BCB7-0A7051ADAD8E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="924">
   <si>
     <t>000001</t>
   </si>
@@ -2788,14 +2788,31 @@
   </si>
   <si>
     <t>coordenates</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Ruta de prueba</t>
+  </si>
+  <si>
+    <t>Ruta de prueba2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2823,12 +2840,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3143,19 +3161,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620874E8-4E5E-4166-8310-8DF59299F763}">
-  <dimension ref="A1:C460"/>
+  <dimension ref="A1:E470"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="E465" sqref="E465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>459</v>
       </c>
@@ -3165,8 +3184,11 @@
       <c r="C1" s="1" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3176,8 +3198,11 @@
       <c r="C2" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3187,8 +3212,11 @@
       <c r="C3" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3198,8 +3226,11 @@
       <c r="C4" s="2" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3209,8 +3240,11 @@
       <c r="C5" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3220,8 +3254,11 @@
       <c r="C6" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3231,8 +3268,11 @@
       <c r="C7" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3242,8 +3282,11 @@
       <c r="C8" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3253,8 +3296,11 @@
       <c r="C9" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3264,8 +3310,11 @@
       <c r="C10" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3275,8 +3324,11 @@
       <c r="C11" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3286,8 +3338,11 @@
       <c r="C12" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3297,8 +3352,11 @@
       <c r="C13" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3308,8 +3366,11 @@
       <c r="C14" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3319,8 +3380,11 @@
       <c r="C15" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3330,8 +3394,11 @@
       <c r="C16" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3341,8 +3408,11 @@
       <c r="C17" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3352,8 +3422,11 @@
       <c r="C18" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3363,8 +3436,11 @@
       <c r="C19" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3374,8 +3450,11 @@
       <c r="C20" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3385,8 +3464,11 @@
       <c r="C21" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3396,8 +3478,11 @@
       <c r="C22" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3407,8 +3492,11 @@
       <c r="C23" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3418,8 +3506,11 @@
       <c r="C24" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3429,8 +3520,11 @@
       <c r="C25" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3440,8 +3534,11 @@
       <c r="C26" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3451,8 +3548,11 @@
       <c r="C27" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3462,8 +3562,11 @@
       <c r="C28" s="2" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3473,8 +3576,11 @@
       <c r="C29" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3484,8 +3590,11 @@
       <c r="C30" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3495,8 +3604,11 @@
       <c r="C31" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3506,8 +3618,11 @@
       <c r="C32" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3517,8 +3632,11 @@
       <c r="C33" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3528,8 +3646,11 @@
       <c r="C34" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3539,8 +3660,11 @@
       <c r="C35" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3550,8 +3674,11 @@
       <c r="C36" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3561,8 +3688,11 @@
       <c r="C37" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3572,8 +3702,11 @@
       <c r="C38" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3583,8 +3716,11 @@
       <c r="C39" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3594,8 +3730,11 @@
       <c r="C40" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3605,8 +3744,11 @@
       <c r="C41" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3616,8 +3758,11 @@
       <c r="C42" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="C43" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3638,8 +3786,11 @@
       <c r="C44" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3649,8 +3800,11 @@
       <c r="C45" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3660,8 +3814,11 @@
       <c r="C46" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3671,8 +3828,11 @@
       <c r="C47" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3682,8 +3842,11 @@
       <c r="C48" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3693,8 +3856,11 @@
       <c r="C49" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3704,8 +3870,11 @@
       <c r="C50" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3715,8 +3884,11 @@
       <c r="C51" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -3726,8 +3898,11 @@
       <c r="C52" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3737,8 +3912,11 @@
       <c r="C53" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3748,8 +3926,11 @@
       <c r="C54" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3759,8 +3940,11 @@
       <c r="C55" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3770,8 +3954,11 @@
       <c r="C56" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3781,8 +3968,11 @@
       <c r="C57" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3792,8 +3982,11 @@
       <c r="C58" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3803,8 +3996,11 @@
       <c r="C59" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3814,8 +4010,11 @@
       <c r="C60" s="2" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3825,8 +4024,11 @@
       <c r="C61" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3836,8 +4038,11 @@
       <c r="C62" s="2" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3847,8 +4052,11 @@
       <c r="C63" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -3858,8 +4066,11 @@
       <c r="C64" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3869,8 +4080,11 @@
       <c r="C65" s="2" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -3880,8 +4094,11 @@
       <c r="C66" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -3891,8 +4108,11 @@
       <c r="C67" s="2" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3902,8 +4122,11 @@
       <c r="C68" s="2" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -3913,8 +4136,11 @@
       <c r="C69" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3924,8 +4150,11 @@
       <c r="C70" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3935,8 +4164,11 @@
       <c r="C71" s="2" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -3946,8 +4178,11 @@
       <c r="C72" s="2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -3957,8 +4192,11 @@
       <c r="C73" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3968,8 +4206,11 @@
       <c r="C74" s="2" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3979,8 +4220,11 @@
       <c r="C75" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3990,8 +4234,11 @@
       <c r="C76" s="2" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -4001,8 +4248,11 @@
       <c r="C77" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -4012,8 +4262,11 @@
       <c r="C78" s="2" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -4023,8 +4276,11 @@
       <c r="C79" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -4034,8 +4290,11 @@
       <c r="C80" s="2" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -4045,8 +4304,11 @@
       <c r="C81" s="2" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -4056,8 +4318,11 @@
       <c r="C82" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -4067,8 +4332,11 @@
       <c r="C83" s="2" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -4078,8 +4346,11 @@
       <c r="C84" s="2" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -4089,8 +4360,11 @@
       <c r="C85" s="2" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -4100,8 +4374,11 @@
       <c r="C86" s="2" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -4111,8 +4388,11 @@
       <c r="C87" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -4122,8 +4402,11 @@
       <c r="C88" s="2" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -4133,8 +4416,11 @@
       <c r="C89" s="2" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -4144,8 +4430,11 @@
       <c r="C90" s="2" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -4155,8 +4444,11 @@
       <c r="C91" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -4166,8 +4458,11 @@
       <c r="C92" s="2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -4177,8 +4472,11 @@
       <c r="C93" s="2" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -4188,8 +4486,11 @@
       <c r="C94" s="2" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -4199,8 +4500,11 @@
       <c r="C95" s="2" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -4210,8 +4514,11 @@
       <c r="C96" s="2" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -4221,8 +4528,11 @@
       <c r="C97" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -4232,8 +4542,11 @@
       <c r="C98" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -4243,8 +4556,11 @@
       <c r="C99" s="2" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -4254,8 +4570,11 @@
       <c r="C100" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -4265,8 +4584,11 @@
       <c r="C101" s="2" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -4276,8 +4598,11 @@
       <c r="C102" s="2" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -4287,8 +4612,11 @@
       <c r="C103" s="2" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4298,8 +4626,11 @@
       <c r="C104" s="2" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -4309,8 +4640,11 @@
       <c r="C105" s="2" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -4320,8 +4654,11 @@
       <c r="C106" s="2" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -4331,8 +4668,11 @@
       <c r="C107" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4342,8 +4682,11 @@
       <c r="C108" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4353,8 +4696,11 @@
       <c r="C109" s="2" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4364,8 +4710,11 @@
       <c r="C110" s="2" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -4375,8 +4724,11 @@
       <c r="C111" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4386,8 +4738,11 @@
       <c r="C112" s="2" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -4397,8 +4752,11 @@
       <c r="C113" s="2" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -4408,8 +4766,11 @@
       <c r="C114" s="2" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4419,8 +4780,11 @@
       <c r="C115" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -4430,8 +4794,11 @@
       <c r="C116" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -4441,8 +4808,11 @@
       <c r="C117" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -4452,8 +4822,11 @@
       <c r="C118" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4463,8 +4836,11 @@
       <c r="C119" s="2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -4474,8 +4850,11 @@
       <c r="C120" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4485,8 +4864,11 @@
       <c r="C121" s="2" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -4496,8 +4878,11 @@
       <c r="C122" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4507,8 +4892,11 @@
       <c r="C123" s="2" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4518,8 +4906,11 @@
       <c r="C124" s="2" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -4529,8 +4920,11 @@
       <c r="C125" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4540,8 +4934,11 @@
       <c r="C126" s="2" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -4551,8 +4948,11 @@
       <c r="C127" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4562,8 +4962,11 @@
       <c r="C128" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -4573,8 +4976,11 @@
       <c r="C129" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4584,8 +4990,11 @@
       <c r="C130" s="2" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4595,8 +5004,11 @@
       <c r="C131" s="2" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -4606,8 +5018,11 @@
       <c r="C132" s="2" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4617,8 +5032,11 @@
       <c r="C133" s="2" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -4628,8 +5046,11 @@
       <c r="C134" s="2" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4639,8 +5060,11 @@
       <c r="C135" s="2" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4650,8 +5074,11 @@
       <c r="C136" s="2" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -4661,8 +5088,11 @@
       <c r="C137" s="2" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4672,8 +5102,11 @@
       <c r="C138" s="2" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4683,8 +5116,11 @@
       <c r="C139" s="2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4694,8 +5130,11 @@
       <c r="C140" s="2" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4705,8 +5144,11 @@
       <c r="C141" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4716,8 +5158,11 @@
       <c r="C142" s="2" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4727,8 +5172,11 @@
       <c r="C143" s="2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4738,8 +5186,11 @@
       <c r="C144" s="2" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4749,8 +5200,11 @@
       <c r="C145" s="2" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4760,8 +5214,11 @@
       <c r="C146" s="2" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4771,8 +5228,11 @@
       <c r="C147" s="2" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4782,8 +5242,11 @@
       <c r="C148" s="2" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4793,8 +5256,11 @@
       <c r="C149" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4804,8 +5270,11 @@
       <c r="C150" s="2" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4815,8 +5284,11 @@
       <c r="C151" s="2" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4826,8 +5298,11 @@
       <c r="C152" s="2" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4837,8 +5312,11 @@
       <c r="C153" s="2" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -4848,8 +5326,11 @@
       <c r="C154" s="2" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4859,8 +5340,11 @@
       <c r="C155" s="2" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4870,8 +5354,11 @@
       <c r="C156" s="2" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4881,8 +5368,11 @@
       <c r="C157" s="2" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4892,8 +5382,11 @@
       <c r="C158" s="2" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4903,8 +5396,11 @@
       <c r="C159" s="2" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -4914,8 +5410,11 @@
       <c r="C160" s="2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4925,8 +5424,11 @@
       <c r="C161" s="2" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4936,8 +5438,11 @@
       <c r="C162" s="2" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4947,8 +5452,11 @@
       <c r="C163" s="2" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4958,8 +5466,11 @@
       <c r="C164" s="2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4969,8 +5480,11 @@
       <c r="C165" s="2" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -4980,8 +5494,11 @@
       <c r="C166" s="2" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -4991,8 +5508,11 @@
       <c r="C167" s="2" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -5002,8 +5522,11 @@
       <c r="C168" s="2" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -5013,8 +5536,11 @@
       <c r="C169" s="2" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -5024,8 +5550,11 @@
       <c r="C170" s="2" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -5035,8 +5564,11 @@
       <c r="C171" s="2" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -5046,8 +5578,11 @@
       <c r="C172" s="2" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -5057,8 +5592,11 @@
       <c r="C173" s="2" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -5068,8 +5606,11 @@
       <c r="C174" s="2" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -5079,8 +5620,11 @@
       <c r="C175" s="2" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -5090,8 +5634,11 @@
       <c r="C176" s="2" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -5101,8 +5648,11 @@
       <c r="C177" s="2" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -5112,8 +5662,11 @@
       <c r="C178" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -5123,8 +5676,11 @@
       <c r="C179" s="2" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -5134,8 +5690,11 @@
       <c r="C180" s="2" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -5145,8 +5704,11 @@
       <c r="C181" s="2" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -5156,8 +5718,11 @@
       <c r="C182" s="2" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5167,8 +5732,11 @@
       <c r="C183" s="2" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -5178,8 +5746,11 @@
       <c r="C184" s="2" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -5189,8 +5760,11 @@
       <c r="C185" s="2" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -5200,8 +5774,11 @@
       <c r="C186" s="2" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -5211,8 +5788,11 @@
       <c r="C187" s="2" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -5222,8 +5802,11 @@
       <c r="C188" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -5233,8 +5816,11 @@
       <c r="C189" s="2" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -5244,8 +5830,11 @@
       <c r="C190" s="2" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -5255,8 +5844,11 @@
       <c r="C191" s="2" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -5266,8 +5858,11 @@
       <c r="C192" s="2" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -5277,8 +5872,11 @@
       <c r="C193" s="2" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -5288,8 +5886,11 @@
       <c r="C194" s="2" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -5299,8 +5900,11 @@
       <c r="C195" s="2" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -5310,8 +5914,11 @@
       <c r="C196" s="2" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -5321,8 +5928,11 @@
       <c r="C197" s="2" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -5332,8 +5942,11 @@
       <c r="C198" s="2" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -5343,8 +5956,11 @@
       <c r="C199" s="2" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -5354,8 +5970,11 @@
       <c r="C200" s="2" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5365,8 +5984,11 @@
       <c r="C201" s="2" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5376,8 +5998,11 @@
       <c r="C202" s="2" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5387,8 +6012,11 @@
       <c r="C203" s="2" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -5398,8 +6026,11 @@
       <c r="C204" s="2" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -5409,8 +6040,11 @@
       <c r="C205" s="2" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -5420,8 +6054,11 @@
       <c r="C206" s="2" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -5431,8 +6068,11 @@
       <c r="C207" s="2" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -5442,8 +6082,11 @@
       <c r="C208" s="2" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -5453,8 +6096,11 @@
       <c r="C209" s="2" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5464,8 +6110,11 @@
       <c r="C210" s="2" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
@@ -5475,8 +6124,11 @@
       <c r="C211" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -5486,8 +6138,11 @@
       <c r="C212" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -5497,8 +6152,11 @@
       <c r="C213" s="2" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -5508,8 +6166,11 @@
       <c r="C214" s="2" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -5519,8 +6180,11 @@
       <c r="C215" s="2" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -5530,8 +6194,11 @@
       <c r="C216" s="2" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1</v>
       </c>
@@ -5541,8 +6208,11 @@
       <c r="C217" s="2" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5552,8 +6222,11 @@
       <c r="C218" s="2" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -5563,8 +6236,11 @@
       <c r="C219" s="2" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -5574,8 +6250,11 @@
       <c r="C220" s="2" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -5585,8 +6264,11 @@
       <c r="C221" s="2" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1</v>
       </c>
@@ -5596,8 +6278,11 @@
       <c r="C222" s="2" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
@@ -5607,8 +6292,11 @@
       <c r="C223" s="2" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -5618,8 +6306,11 @@
       <c r="C224" s="2" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1</v>
       </c>
@@ -5629,8 +6320,11 @@
       <c r="C225" s="2" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
@@ -5640,8 +6334,11 @@
       <c r="C226" s="2" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -5651,8 +6348,11 @@
       <c r="C227" s="2" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
@@ -5662,8 +6362,11 @@
       <c r="C228" s="2" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
@@ -5673,8 +6376,11 @@
       <c r="C229" s="2" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
@@ -5684,8 +6390,11 @@
       <c r="C230" s="2" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -5695,8 +6404,11 @@
       <c r="C231" s="2" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1</v>
       </c>
@@ -5706,8 +6418,11 @@
       <c r="C232" s="2" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -5717,8 +6432,11 @@
       <c r="C233" s="2" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -5728,8 +6446,11 @@
       <c r="C234" s="2" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1</v>
       </c>
@@ -5739,8 +6460,11 @@
       <c r="C235" s="2" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -5750,8 +6474,11 @@
       <c r="C236" s="2" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
@@ -5761,8 +6488,11 @@
       <c r="C237" s="2" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
@@ -5772,8 +6502,11 @@
       <c r="C238" s="2" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
@@ -5783,8 +6516,11 @@
       <c r="C239" s="2" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
@@ -5794,8 +6530,11 @@
       <c r="C240" s="2" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1</v>
       </c>
@@ -5805,8 +6544,11 @@
       <c r="C241" s="2" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
@@ -5816,8 +6558,11 @@
       <c r="C242" s="2" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
@@ -5827,8 +6572,11 @@
       <c r="C243" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
@@ -5838,8 +6586,11 @@
       <c r="C244" s="2" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -5849,8 +6600,11 @@
       <c r="C245" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
@@ -5860,8 +6614,11 @@
       <c r="C246" s="2" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
@@ -5871,8 +6628,11 @@
       <c r="C247" s="2" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -5882,8 +6642,11 @@
       <c r="C248" s="2" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1</v>
       </c>
@@ -5893,8 +6656,11 @@
       <c r="C249" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1</v>
       </c>
@@ -5904,8 +6670,11 @@
       <c r="C250" s="2" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1</v>
       </c>
@@ -5915,8 +6684,11 @@
       <c r="C251" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1</v>
       </c>
@@ -5926,8 +6698,11 @@
       <c r="C252" s="2" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
@@ -5937,8 +6712,11 @@
       <c r="C253" s="2" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
@@ -5948,8 +6726,11 @@
       <c r="C254" s="2" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
@@ -5959,8 +6740,11 @@
       <c r="C255" s="2" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1</v>
       </c>
@@ -5970,8 +6754,11 @@
       <c r="C256" s="2" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1</v>
       </c>
@@ -5981,8 +6768,11 @@
       <c r="C257" s="2" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1</v>
       </c>
@@ -5992,8 +6782,11 @@
       <c r="C258" s="2" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1</v>
       </c>
@@ -6003,8 +6796,11 @@
       <c r="C259" s="2" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1</v>
       </c>
@@ -6014,8 +6810,11 @@
       <c r="C260" s="2" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1</v>
       </c>
@@ -6025,8 +6824,11 @@
       <c r="C261" s="2" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1</v>
       </c>
@@ -6036,8 +6838,11 @@
       <c r="C262" s="2" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1</v>
       </c>
@@ -6047,8 +6852,11 @@
       <c r="C263" s="2" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1</v>
       </c>
@@ -6058,8 +6866,11 @@
       <c r="C264" s="2" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1</v>
       </c>
@@ -6069,8 +6880,11 @@
       <c r="C265" s="2" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1</v>
       </c>
@@ -6080,8 +6894,11 @@
       <c r="C266" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1</v>
       </c>
@@ -6091,8 +6908,11 @@
       <c r="C267" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1</v>
       </c>
@@ -6102,8 +6922,11 @@
       <c r="C268" s="2" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1</v>
       </c>
@@ -6113,8 +6936,11 @@
       <c r="C269" s="2" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1</v>
       </c>
@@ -6124,8 +6950,11 @@
       <c r="C270" s="2" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1</v>
       </c>
@@ -6135,8 +6964,11 @@
       <c r="C271" s="2" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1</v>
       </c>
@@ -6146,8 +6978,11 @@
       <c r="C272" s="2" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1</v>
       </c>
@@ -6157,8 +6992,11 @@
       <c r="C273" s="2" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1</v>
       </c>
@@ -6168,8 +7006,11 @@
       <c r="C274" s="2" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1</v>
       </c>
@@ -6179,8 +7020,11 @@
       <c r="C275" s="2" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1</v>
       </c>
@@ -6190,8 +7034,11 @@
       <c r="C276" s="2" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1</v>
       </c>
@@ -6201,8 +7048,11 @@
       <c r="C277" s="2" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1</v>
       </c>
@@ -6212,8 +7062,11 @@
       <c r="C278" s="2" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1</v>
       </c>
@@ -6223,8 +7076,11 @@
       <c r="C279" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1</v>
       </c>
@@ -6234,8 +7090,11 @@
       <c r="C280" s="2" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1</v>
       </c>
@@ -6245,8 +7104,11 @@
       <c r="C281" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1</v>
       </c>
@@ -6256,8 +7118,11 @@
       <c r="C282" s="2" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1</v>
       </c>
@@ -6267,8 +7132,11 @@
       <c r="C283" s="2" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1</v>
       </c>
@@ -6278,8 +7146,11 @@
       <c r="C284" s="2" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1</v>
       </c>
@@ -6289,8 +7160,11 @@
       <c r="C285" s="2" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1</v>
       </c>
@@ -6300,8 +7174,11 @@
       <c r="C286" s="2" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1</v>
       </c>
@@ -6311,8 +7188,11 @@
       <c r="C287" s="2" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1</v>
       </c>
@@ -6322,8 +7202,11 @@
       <c r="C288" s="2" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1</v>
       </c>
@@ -6333,8 +7216,11 @@
       <c r="C289" s="2" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1</v>
       </c>
@@ -6344,8 +7230,11 @@
       <c r="C290" s="2" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1</v>
       </c>
@@ -6355,8 +7244,11 @@
       <c r="C291" s="2" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1</v>
       </c>
@@ -6366,8 +7258,11 @@
       <c r="C292" s="2" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1</v>
       </c>
@@ -6377,8 +7272,11 @@
       <c r="C293" s="2" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1</v>
       </c>
@@ -6388,8 +7286,11 @@
       <c r="C294" s="2" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1</v>
       </c>
@@ -6399,8 +7300,11 @@
       <c r="C295" s="2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1</v>
       </c>
@@ -6410,8 +7314,11 @@
       <c r="C296" s="2" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1</v>
       </c>
@@ -6421,8 +7328,11 @@
       <c r="C297" s="2" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1</v>
       </c>
@@ -6432,8 +7342,11 @@
       <c r="C298" s="2" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1</v>
       </c>
@@ -6443,8 +7356,11 @@
       <c r="C299" s="2" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1</v>
       </c>
@@ -6454,8 +7370,11 @@
       <c r="C300" s="2" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1</v>
       </c>
@@ -6465,8 +7384,11 @@
       <c r="C301" s="2" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1</v>
       </c>
@@ -6476,8 +7398,11 @@
       <c r="C302" s="2" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1</v>
       </c>
@@ -6487,8 +7412,11 @@
       <c r="C303" s="2" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1</v>
       </c>
@@ -6498,8 +7426,11 @@
       <c r="C304" s="2" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1</v>
       </c>
@@ -6509,8 +7440,11 @@
       <c r="C305" s="2" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1</v>
       </c>
@@ -6520,8 +7454,11 @@
       <c r="C306" s="2" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1</v>
       </c>
@@ -6531,8 +7468,11 @@
       <c r="C307" s="2" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1</v>
       </c>
@@ -6542,8 +7482,11 @@
       <c r="C308" s="2" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1</v>
       </c>
@@ -6553,8 +7496,11 @@
       <c r="C309" s="2" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1</v>
       </c>
@@ -6564,8 +7510,11 @@
       <c r="C310" s="2" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1</v>
       </c>
@@ -6575,8 +7524,11 @@
       <c r="C311" s="2" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1</v>
       </c>
@@ -6586,8 +7538,11 @@
       <c r="C312" s="2" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1</v>
       </c>
@@ -6597,8 +7552,11 @@
       <c r="C313" s="2" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1</v>
       </c>
@@ -6608,8 +7566,11 @@
       <c r="C314" s="2" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1</v>
       </c>
@@ -6619,8 +7580,11 @@
       <c r="C315" s="2" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1</v>
       </c>
@@ -6630,8 +7594,11 @@
       <c r="C316" s="2" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1</v>
       </c>
@@ -6641,8 +7608,11 @@
       <c r="C317" s="2" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1</v>
       </c>
@@ -6652,8 +7622,11 @@
       <c r="C318" s="2" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1</v>
       </c>
@@ -6663,8 +7636,11 @@
       <c r="C319" s="2" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1</v>
       </c>
@@ -6674,8 +7650,11 @@
       <c r="C320" s="2" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1</v>
       </c>
@@ -6685,8 +7664,11 @@
       <c r="C321" s="2" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1</v>
       </c>
@@ -6696,8 +7678,11 @@
       <c r="C322" s="2" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1</v>
       </c>
@@ -6707,8 +7692,11 @@
       <c r="C323" s="2" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1</v>
       </c>
@@ -6718,8 +7706,11 @@
       <c r="C324" s="2" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1</v>
       </c>
@@ -6729,8 +7720,11 @@
       <c r="C325" s="2" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1</v>
       </c>
@@ -6740,8 +7734,11 @@
       <c r="C326" s="2" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1</v>
       </c>
@@ -6751,8 +7748,11 @@
       <c r="C327" s="2" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1</v>
       </c>
@@ -6762,8 +7762,11 @@
       <c r="C328" s="2" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1</v>
       </c>
@@ -6773,8 +7776,11 @@
       <c r="C329" s="2" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1</v>
       </c>
@@ -6784,8 +7790,11 @@
       <c r="C330" s="2" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1</v>
       </c>
@@ -6795,8 +7804,11 @@
       <c r="C331" s="2" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1</v>
       </c>
@@ -6806,8 +7818,11 @@
       <c r="C332" s="2" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1</v>
       </c>
@@ -6817,8 +7832,11 @@
       <c r="C333" s="2" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1</v>
       </c>
@@ -6828,8 +7846,11 @@
       <c r="C334" s="2" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1</v>
       </c>
@@ -6839,8 +7860,11 @@
       <c r="C335" s="2" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1</v>
       </c>
@@ -6850,8 +7874,11 @@
       <c r="C336" s="2" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1</v>
       </c>
@@ -6861,8 +7888,11 @@
       <c r="C337" s="2" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1</v>
       </c>
@@ -6872,8 +7902,11 @@
       <c r="C338" s="2" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1</v>
       </c>
@@ -6883,8 +7916,11 @@
       <c r="C339" s="2" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1</v>
       </c>
@@ -6894,8 +7930,11 @@
       <c r="C340" s="2" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1</v>
       </c>
@@ -6905,8 +7944,11 @@
       <c r="C341" s="2" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1</v>
       </c>
@@ -6916,8 +7958,11 @@
       <c r="C342" s="2" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1</v>
       </c>
@@ -6927,8 +7972,11 @@
       <c r="C343" s="2" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1</v>
       </c>
@@ -6938,8 +7986,11 @@
       <c r="C344" s="2" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1</v>
       </c>
@@ -6949,8 +8000,11 @@
       <c r="C345" s="2" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1</v>
       </c>
@@ -6960,8 +8014,11 @@
       <c r="C346" s="2" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1</v>
       </c>
@@ -6971,8 +8028,11 @@
       <c r="C347" s="2" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1</v>
       </c>
@@ -6982,8 +8042,11 @@
       <c r="C348" s="2" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1</v>
       </c>
@@ -6993,8 +8056,11 @@
       <c r="C349" s="2" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1</v>
       </c>
@@ -7004,8 +8070,11 @@
       <c r="C350" s="2" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1</v>
       </c>
@@ -7015,8 +8084,11 @@
       <c r="C351" s="2" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1</v>
       </c>
@@ -7026,8 +8098,11 @@
       <c r="C352" s="2" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1</v>
       </c>
@@ -7037,8 +8112,11 @@
       <c r="C353" s="2" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1</v>
       </c>
@@ -7048,8 +8126,11 @@
       <c r="C354" s="2" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1</v>
       </c>
@@ -7059,8 +8140,11 @@
       <c r="C355" s="2" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D355" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1</v>
       </c>
@@ -7070,8 +8154,11 @@
       <c r="C356" s="2" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D356" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1</v>
       </c>
@@ -7081,8 +8168,11 @@
       <c r="C357" s="2" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1</v>
       </c>
@@ -7092,8 +8182,11 @@
       <c r="C358" s="2" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D358" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1</v>
       </c>
@@ -7103,8 +8196,11 @@
       <c r="C359" s="2" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D359" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1</v>
       </c>
@@ -7114,8 +8210,11 @@
       <c r="C360" s="2" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D360" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1</v>
       </c>
@@ -7125,8 +8224,11 @@
       <c r="C361" s="2" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D361" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1</v>
       </c>
@@ -7136,8 +8238,11 @@
       <c r="C362" s="2" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D362" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1</v>
       </c>
@@ -7147,8 +8252,11 @@
       <c r="C363" s="2" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D363" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1</v>
       </c>
@@ -7158,8 +8266,11 @@
       <c r="C364" s="2" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D364" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1</v>
       </c>
@@ -7169,8 +8280,11 @@
       <c r="C365" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1</v>
       </c>
@@ -7180,8 +8294,11 @@
       <c r="C366" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D366" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1</v>
       </c>
@@ -7191,8 +8308,11 @@
       <c r="C367" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D367" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1</v>
       </c>
@@ -7202,8 +8322,11 @@
       <c r="C368" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D368" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1</v>
       </c>
@@ -7213,8 +8336,11 @@
       <c r="C369" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D369" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1</v>
       </c>
@@ -7224,8 +8350,11 @@
       <c r="C370" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D370" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1</v>
       </c>
@@ -7235,8 +8364,11 @@
       <c r="C371" s="2" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D371" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1</v>
       </c>
@@ -7246,8 +8378,11 @@
       <c r="C372" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D372" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1</v>
       </c>
@@ -7257,8 +8392,11 @@
       <c r="C373" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D373" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1</v>
       </c>
@@ -7268,8 +8406,11 @@
       <c r="C374" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D374" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1</v>
       </c>
@@ -7279,8 +8420,11 @@
       <c r="C375" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D375" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1</v>
       </c>
@@ -7290,8 +8434,11 @@
       <c r="C376" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D376" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1</v>
       </c>
@@ -7301,8 +8448,11 @@
       <c r="C377" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D377" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1</v>
       </c>
@@ -7312,8 +8462,11 @@
       <c r="C378" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D378" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1</v>
       </c>
@@ -7323,8 +8476,11 @@
       <c r="C379" s="2" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D379" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1</v>
       </c>
@@ -7334,8 +8490,11 @@
       <c r="C380" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D380" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1</v>
       </c>
@@ -7345,8 +8504,11 @@
       <c r="C381" s="2" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D381" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1</v>
       </c>
@@ -7356,8 +8518,11 @@
       <c r="C382" s="2" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D382" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1</v>
       </c>
@@ -7367,8 +8532,11 @@
       <c r="C383" s="2" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D383" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1</v>
       </c>
@@ -7378,8 +8546,11 @@
       <c r="C384" s="2" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D384" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1</v>
       </c>
@@ -7389,8 +8560,11 @@
       <c r="C385" s="2" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D385" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1</v>
       </c>
@@ -7400,8 +8574,11 @@
       <c r="C386" s="2" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D386" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1</v>
       </c>
@@ -7411,8 +8588,11 @@
       <c r="C387" s="2" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D387" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1</v>
       </c>
@@ -7422,8 +8602,11 @@
       <c r="C388" s="2" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D388" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1</v>
       </c>
@@ -7433,8 +8616,11 @@
       <c r="C389" s="2" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D389" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1</v>
       </c>
@@ -7444,8 +8630,11 @@
       <c r="C390" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D390" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1</v>
       </c>
@@ -7455,8 +8644,11 @@
       <c r="C391" s="2" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D391" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1</v>
       </c>
@@ -7466,8 +8658,11 @@
       <c r="C392" s="2" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D392" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1</v>
       </c>
@@ -7477,8 +8672,11 @@
       <c r="C393" s="2" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D393" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1</v>
       </c>
@@ -7488,8 +8686,11 @@
       <c r="C394" s="2" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D394" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1</v>
       </c>
@@ -7499,8 +8700,11 @@
       <c r="C395" s="2" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D395" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1</v>
       </c>
@@ -7510,8 +8714,11 @@
       <c r="C396" s="2" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D396" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1</v>
       </c>
@@ -7521,8 +8728,11 @@
       <c r="C397" s="2" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D397" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1</v>
       </c>
@@ -7532,8 +8742,11 @@
       <c r="C398" s="2" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D398" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1</v>
       </c>
@@ -7543,8 +8756,11 @@
       <c r="C399" s="2" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D399" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1</v>
       </c>
@@ -7554,8 +8770,11 @@
       <c r="C400" s="2" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D400" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1</v>
       </c>
@@ -7565,8 +8784,11 @@
       <c r="C401" s="2" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D401" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1</v>
       </c>
@@ -7576,8 +8798,11 @@
       <c r="C402" s="2" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D402" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1</v>
       </c>
@@ -7587,8 +8812,11 @@
       <c r="C403" s="2" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D403" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1</v>
       </c>
@@ -7598,8 +8826,11 @@
       <c r="C404" s="2" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D404" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1</v>
       </c>
@@ -7609,8 +8840,11 @@
       <c r="C405" s="2" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D405" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1</v>
       </c>
@@ -7620,8 +8854,11 @@
       <c r="C406" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D406" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1</v>
       </c>
@@ -7631,8 +8868,11 @@
       <c r="C407" s="2" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D407" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1</v>
       </c>
@@ -7642,8 +8882,11 @@
       <c r="C408" s="2" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D408" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1</v>
       </c>
@@ -7653,8 +8896,11 @@
       <c r="C409" s="2" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D409" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1</v>
       </c>
@@ -7664,8 +8910,11 @@
       <c r="C410" s="2" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D410" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1</v>
       </c>
@@ -7675,8 +8924,11 @@
       <c r="C411" s="2" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D411" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1</v>
       </c>
@@ -7686,8 +8938,11 @@
       <c r="C412" s="2" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D412" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1</v>
       </c>
@@ -7697,8 +8952,11 @@
       <c r="C413" s="2" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D413" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1</v>
       </c>
@@ -7708,8 +8966,11 @@
       <c r="C414" s="2" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D414" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1</v>
       </c>
@@ -7719,8 +8980,11 @@
       <c r="C415" s="2" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D415" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1</v>
       </c>
@@ -7730,8 +8994,11 @@
       <c r="C416" s="2" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D416" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1</v>
       </c>
@@ -7741,8 +9008,11 @@
       <c r="C417" s="2" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D417" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1</v>
       </c>
@@ -7752,8 +9022,11 @@
       <c r="C418" s="2" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D418" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1</v>
       </c>
@@ -7763,8 +9036,11 @@
       <c r="C419" s="2" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D419" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1</v>
       </c>
@@ -7774,8 +9050,11 @@
       <c r="C420" s="2" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D420" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1</v>
       </c>
@@ -7785,8 +9064,11 @@
       <c r="C421" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D421" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1</v>
       </c>
@@ -7796,8 +9078,11 @@
       <c r="C422" s="2" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D422" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>1</v>
       </c>
@@ -7807,8 +9092,11 @@
       <c r="C423" s="2" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D423" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1</v>
       </c>
@@ -7818,8 +9106,11 @@
       <c r="C424" s="2" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D424" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1</v>
       </c>
@@ -7829,8 +9120,11 @@
       <c r="C425" s="2" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D425" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1</v>
       </c>
@@ -7840,8 +9134,11 @@
       <c r="C426" s="2" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D426" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>1</v>
       </c>
@@ -7851,8 +9148,11 @@
       <c r="C427" s="2" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D427" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>1</v>
       </c>
@@ -7862,8 +9162,11 @@
       <c r="C428" s="2" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D428" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1</v>
       </c>
@@ -7873,8 +9176,11 @@
       <c r="C429" s="2" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D429" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>1</v>
       </c>
@@ -7884,8 +9190,11 @@
       <c r="C430" s="2" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D430" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1</v>
       </c>
@@ -7895,8 +9204,11 @@
       <c r="C431" s="2" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D431" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1</v>
       </c>
@@ -7906,8 +9218,11 @@
       <c r="C432" s="2" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D432" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>1</v>
       </c>
@@ -7917,8 +9232,11 @@
       <c r="C433" s="2" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D433" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1</v>
       </c>
@@ -7928,8 +9246,11 @@
       <c r="C434" s="2" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D434" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>1</v>
       </c>
@@ -7939,8 +9260,11 @@
       <c r="C435" s="2" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D435" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>1</v>
       </c>
@@ -7950,8 +9274,11 @@
       <c r="C436" s="2" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D436" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>1</v>
       </c>
@@ -7961,8 +9288,11 @@
       <c r="C437" s="2" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D437" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>1</v>
       </c>
@@ -7972,8 +9302,11 @@
       <c r="C438" s="2" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D438" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>1</v>
       </c>
@@ -7983,8 +9316,11 @@
       <c r="C439" s="2" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D439" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>1</v>
       </c>
@@ -7994,8 +9330,11 @@
       <c r="C440" s="2" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D440" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>1</v>
       </c>
@@ -8005,8 +9344,11 @@
       <c r="C441" s="2" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D441" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>1</v>
       </c>
@@ -8016,8 +9358,11 @@
       <c r="C442" s="2" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D442" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>1</v>
       </c>
@@ -8027,8 +9372,11 @@
       <c r="C443" s="2" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D443" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>1</v>
       </c>
@@ -8038,8 +9386,11 @@
       <c r="C444" s="2" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D444" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>1</v>
       </c>
@@ -8049,8 +9400,11 @@
       <c r="C445" s="2" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D445" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>1</v>
       </c>
@@ -8060,8 +9414,11 @@
       <c r="C446" s="2" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D446" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>1</v>
       </c>
@@ -8071,8 +9428,11 @@
       <c r="C447" s="2" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D447" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>1</v>
       </c>
@@ -8082,8 +9442,11 @@
       <c r="C448" s="2" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D448" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>1</v>
       </c>
@@ -8093,8 +9456,11 @@
       <c r="C449" s="2" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D449" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>1</v>
       </c>
@@ -8104,8 +9470,11 @@
       <c r="C450" s="2" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D450" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>1</v>
       </c>
@@ -8115,8 +9484,11 @@
       <c r="C451" s="2" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D451" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>1</v>
       </c>
@@ -8126,8 +9498,11 @@
       <c r="C452" s="2" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D452" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>1</v>
       </c>
@@ -8137,8 +9512,11 @@
       <c r="C453" s="2" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D453" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>1</v>
       </c>
@@ -8148,8 +9526,11 @@
       <c r="C454" s="2" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D454" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>1</v>
       </c>
@@ -8159,8 +9540,11 @@
       <c r="C455" s="2" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D455" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>1</v>
       </c>
@@ -8170,8 +9554,11 @@
       <c r="C456" s="2" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D456" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>1</v>
       </c>
@@ -8181,8 +9568,11 @@
       <c r="C457" s="2" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D457" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>1</v>
       </c>
@@ -8192,8 +9582,11 @@
       <c r="C458" s="2" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D458" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>1</v>
       </c>
@@ -8203,8 +9596,11 @@
       <c r="C459" s="2" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D459" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>1</v>
       </c>
@@ -8213,6 +9609,150 @@
       </c>
       <c r="C460" s="2" t="s">
         <v>919</v>
+      </c>
+      <c r="D460" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>2</v>
+      </c>
+      <c r="B461" t="s">
+        <v>0</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D461" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>2</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D462" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>2</v>
+      </c>
+      <c r="B463" t="s">
+        <v>2</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D463" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>2</v>
+      </c>
+      <c r="B464" t="s">
+        <v>3</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D464" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>2</v>
+      </c>
+      <c r="B465" t="s">
+        <v>4</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D465" t="s">
+        <v>923</v>
+      </c>
+      <c r="E465" s="3"/>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>2</v>
+      </c>
+      <c r="B466" t="s">
+        <v>5</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D466" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>2</v>
+      </c>
+      <c r="B467" t="s">
+        <v>6</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D467" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>2</v>
+      </c>
+      <c r="B468" t="s">
+        <v>7</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D468" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>2</v>
+      </c>
+      <c r="B469" t="s">
+        <v>8</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D469" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>2</v>
+      </c>
+      <c r="B470" t="s">
+        <v>9</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D470" t="s">
+        <v>923</v>
       </c>
     </row>
   </sheetData>
